--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opata\OneDrive\Documents\Projects\sormas\GCNET\SORMAS-Project\sormas-api\src\main\resources\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE7E25-0EF3-49BE-9B23-F4908F2F3316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Rights" r:id="rId3" sheetId="1"/>
-    <sheet name="About" r:id="rId4" sheetId="2"/>
+    <sheet name="User Rights" sheetId="1" r:id="rId1"/>
+    <sheet name="About" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="351">
   <si>
     <t>User Right</t>
   </si>
@@ -1063,49 +1071,60 @@
   </si>
   <si>
     <t>1.66.0-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>Hospital Supervisor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009900"/>
+        <fgColor rgb="FF009900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1114,299 +1133,549 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD155"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.0" customWidth="true"/>
-    <col min="2" max="2" width="50.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-    <col min="11" max="11" width="14.0" customWidth="true"/>
-    <col min="12" max="12" width="14.0" customWidth="true"/>
-    <col min="13" max="13" width="14.0" customWidth="true"/>
-    <col min="14" max="14" width="14.0" customWidth="true"/>
-    <col min="15" max="15" width="14.0" customWidth="true"/>
-    <col min="16" max="16" width="14.0" customWidth="true"/>
-    <col min="17" max="17" width="14.0" customWidth="true"/>
-    <col min="18" max="18" width="14.0" customWidth="true"/>
-    <col min="19" max="19" width="14.0" customWidth="true"/>
-    <col min="20" max="20" width="14.0" customWidth="true"/>
-    <col min="21" max="21" width="14.0" customWidth="true"/>
-    <col min="22" max="22" width="14.0" customWidth="true"/>
-    <col min="23" max="23" width="14.0" customWidth="true"/>
-    <col min="24" max="24" width="14.0" customWidth="true"/>
-    <col min="25" max="25" width="14.0" customWidth="true"/>
-    <col min="26" max="26" width="14.0" customWidth="true"/>
-    <col min="27" max="27" width="14.0" customWidth="true"/>
-    <col min="28" max="28" width="14.0" customWidth="true"/>
-    <col min="29" max="29" width="14.0" customWidth="true"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="3">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="3">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="3">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="3">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="3">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="3">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="3">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="3">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="3">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="J2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="M2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="P2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s" s="3">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s" s="3">
+      <c r="R2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s" s="3">
+      <c r="S2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s" s="3">
+      <c r="T2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s" s="3">
+      <c r="U2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s" s="3">
+      <c r="V2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s" s="3">
+      <c r="W2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s" s="3">
+      <c r="X2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s" s="3">
+      <c r="Y2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" t="s" s="3">
+      <c r="Z2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" t="s" s="3">
+      <c r="AA2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" t="s" s="3">
+      <c r="AB2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" t="s" s="3">
+      <c r="AC2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" t="s" s="3">
+      <c r="AD2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
@@ -1454,8 +1723,8 @@
       <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>43</v>
@@ -1466,8 +1735,8 @@
       <c r="T3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
+      <c r="U3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>42</v>
@@ -1478,8 +1747,8 @@
       <c r="X3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>43</v>
+      <c r="Y3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>43</v>
@@ -1493,9 +1762,12 @@
       <c r="AC3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="AD3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1543,11 +1815,11 @@
       <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>42</v>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>42</v>
@@ -1567,8 +1839,8 @@
       <c r="X4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>43</v>
+      <c r="Y4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>43</v>
@@ -1582,9 +1854,12 @@
       <c r="AC4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="AD4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -1632,8 +1907,8 @@
       <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>43</v>
@@ -1644,8 +1919,8 @@
       <c r="T5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>42</v>
+      <c r="U5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>42</v>
@@ -1656,8 +1931,8 @@
       <c r="X5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>43</v>
+      <c r="Y5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>43</v>
@@ -1671,9 +1946,12 @@
       <c r="AC5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="AD5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
@@ -1694,20 +1972,20 @@
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>43</v>
@@ -1733,11 +2011,11 @@
       <c r="T6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>43</v>
+      <c r="U6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>43</v>
@@ -1760,9 +2038,12 @@
       <c r="AC6" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+      <c r="AD6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
@@ -1783,20 +2064,20 @@
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>43</v>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>43</v>
@@ -1822,20 +2103,20 @@
       <c r="T7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>42</v>
+      <c r="U7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>43</v>
+      <c r="Y7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>43</v>
@@ -1849,9 +2130,12 @@
       <c r="AC7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
+      <c r="AD7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
@@ -1872,20 +2156,20 @@
       <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>43</v>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>43</v>
@@ -1911,11 +2195,11 @@
       <c r="T8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>43</v>
+      <c r="U8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>43</v>
@@ -1938,9 +2222,12 @@
       <c r="AC8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="AD8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B9" t="s">
@@ -1958,23 +2245,23 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>43</v>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>43</v>
@@ -1985,11 +2272,11 @@
       <c r="O9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>43</v>
+      <c r="P9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>43</v>
@@ -2000,11 +2287,11 @@
       <c r="T9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>43</v>
+      <c r="U9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>43</v>
@@ -2027,9 +2314,12 @@
       <c r="AC9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="AD9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
@@ -2059,11 +2349,11 @@
       <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>43</v>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>43</v>
@@ -2089,11 +2379,11 @@
       <c r="T10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>43</v>
+      <c r="U10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>43</v>
@@ -2116,9 +2406,12 @@
       <c r="AC10" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="AD10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B11" t="s">
@@ -2139,8 +2432,8 @@
       <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -2148,8 +2441,8 @@
       <c r="J11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>42</v>
@@ -2166,8 +2459,8 @@
       <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>43</v>
+      <c r="Q11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>43</v>
@@ -2178,11 +2471,11 @@
       <c r="T11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>43</v>
+      <c r="U11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>43</v>
@@ -2205,9 +2498,12 @@
       <c r="AC11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="AD11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2294,9 +2590,12 @@
       <c r="AC12" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
+      <c r="AD12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
@@ -2368,11 +2667,11 @@
       <c r="X13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>43</v>
+      <c r="Y13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>43</v>
@@ -2383,9 +2682,12 @@
       <c r="AC13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="AD13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
@@ -2403,8 +2705,8 @@
       <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>43</v>
@@ -2415,26 +2717,26 @@
       <c r="J14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>43</v>
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>43</v>
+      <c r="P14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>43</v>
@@ -2445,20 +2747,20 @@
       <c r="T14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>42</v>
+      <c r="U14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>43</v>
+      <c r="Y14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>43</v>
@@ -2472,9 +2774,12 @@
       <c r="AC14" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
+      <c r="AD14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
@@ -2492,8 +2797,8 @@
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>43</v>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>43</v>
@@ -2504,17 +2809,17 @@
       <c r="J15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>43</v>
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>43</v>
@@ -2525,8 +2830,8 @@
       <c r="Q15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>42</v>
+      <c r="R15" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>42</v>
@@ -2537,17 +2842,17 @@
       <c r="U15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>42</v>
+      <c r="V15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>43</v>
+      <c r="Y15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>43</v>
@@ -2561,9 +2866,12 @@
       <c r="AC15" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
+      <c r="AD15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
@@ -2650,9 +2958,12 @@
       <c r="AC16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="AD16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B17" t="s">
@@ -2739,9 +3050,12 @@
       <c r="AC17" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="AD17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
@@ -2762,9 +3076,7 @@
       <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2789,11 +3101,11 @@
       <c r="P18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>42</v>
+      <c r="Q18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>42</v>
@@ -2813,8 +3125,8 @@
       <c r="X18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>43</v>
+      <c r="Y18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>43</v>
@@ -2828,9 +3140,12 @@
       <c r="AC18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="AD18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B19" t="s">
@@ -2851,9 +3166,7 @@
       <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2878,8 +3191,8 @@
       <c r="P19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>43</v>
+      <c r="Q19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>43</v>
@@ -2890,8 +3203,8 @@
       <c r="T19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>42</v>
+      <c r="U19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>42</v>
@@ -2902,8 +3215,8 @@
       <c r="X19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>43</v>
+      <c r="Y19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>43</v>
@@ -2917,9 +3230,12 @@
       <c r="AC19" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="AD19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B20" t="s">
@@ -2940,9 +3256,7 @@
       <c r="G20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2967,8 +3281,8 @@
       <c r="P20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>43</v>
+      <c r="Q20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>43</v>
@@ -2979,8 +3293,8 @@
       <c r="T20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>42</v>
+      <c r="U20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>42</v>
@@ -2991,8 +3305,8 @@
       <c r="X20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>43</v>
+      <c r="Y20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>43</v>
@@ -3006,9 +3320,12 @@
       <c r="AC20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="AD20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B21" t="s">
@@ -3029,9 +3346,7 @@
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
         <v>43</v>
       </c>
@@ -3095,9 +3410,12 @@
       <c r="AC21" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="AD21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
@@ -3118,9 +3436,7 @@
       <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3184,9 +3500,12 @@
       <c r="AC22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
+      <c r="AD22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B23" t="s">
@@ -3207,9 +3526,7 @@
       <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3234,11 +3551,11 @@
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>42</v>
+      <c r="Q23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>42</v>
@@ -3258,8 +3575,8 @@
       <c r="X23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="2" t="s">
-        <v>43</v>
+      <c r="Y23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>43</v>
@@ -3273,9 +3590,12 @@
       <c r="AC23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="AD23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
@@ -3296,9 +3616,7 @@
       <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>42</v>
       </c>
@@ -3323,8 +3641,8 @@
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>43</v>
+      <c r="Q24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>43</v>
@@ -3335,8 +3653,8 @@
       <c r="T24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>42</v>
+      <c r="U24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>42</v>
@@ -3347,8 +3665,8 @@
       <c r="X24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y24" s="2" t="s">
-        <v>43</v>
+      <c r="Y24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>43</v>
@@ -3362,9 +3680,12 @@
       <c r="AC24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="AD24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B25" t="s">
@@ -3385,9 +3706,7 @@
       <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
@@ -3451,9 +3770,12 @@
       <c r="AC25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="3">
+      <c r="AD25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
@@ -3474,9 +3796,7 @@
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
@@ -3540,9 +3860,12 @@
       <c r="AC26" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="AD26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B27" t="s">
@@ -3563,9 +3886,7 @@
       <c r="G27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
         <v>43</v>
       </c>
@@ -3629,9 +3950,12 @@
       <c r="AC27" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="3">
+      <c r="AD27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B28" t="s">
@@ -3652,9 +3976,7 @@
       <c r="G28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>42</v>
       </c>
@@ -3667,20 +3989,20 @@
       <c r="L28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>43</v>
+      <c r="M28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>42</v>
+      <c r="O28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>43</v>
+      <c r="Q28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>43</v>
@@ -3691,11 +4013,11 @@
       <c r="T28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>43</v>
+      <c r="U28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>43</v>
@@ -3718,9 +4040,12 @@
       <c r="AC28" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="AD28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
@@ -3741,9 +4066,7 @@
       <c r="G29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>42</v>
       </c>
@@ -3783,8 +4106,8 @@
       <c r="U29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>43</v>
+      <c r="V29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>43</v>
@@ -3807,9 +4130,12 @@
       <c r="AC29" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="AD29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B30" t="s">
@@ -3830,9 +4156,7 @@
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3845,14 +4169,14 @@
       <c r="L30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>43</v>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>42</v>
+      <c r="O30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>42</v>
@@ -3860,8 +4184,8 @@
       <c r="Q30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>43</v>
+      <c r="R30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>43</v>
@@ -3869,11 +4193,11 @@
       <c r="T30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>43</v>
+      <c r="U30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>43</v>
@@ -3896,9 +4220,12 @@
       <c r="AC30" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="AD30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
@@ -3919,9 +4246,7 @@
       <c r="G31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
         <v>43</v>
       </c>
@@ -3940,11 +4265,11 @@
       <c r="N31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>43</v>
+      <c r="O31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>43</v>
@@ -3985,9 +4310,12 @@
       <c r="AC31" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="AD31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B32" t="s">
@@ -4008,9 +4336,7 @@
       <c r="G32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4074,9 +4400,12 @@
       <c r="AC32" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="AD32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B33" t="s">
@@ -4097,20 +4426,18 @@
       <c r="G33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>43</v>
+      <c r="K33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>43</v>
@@ -4121,14 +4448,14 @@
       <c r="O33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>42</v>
+      <c r="P33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>43</v>
+      <c r="R33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>43</v>
@@ -4136,11 +4463,11 @@
       <c r="T33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>43</v>
+      <c r="U33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>43</v>
@@ -4163,9 +4490,12 @@
       <c r="AC33" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="AD33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B34" t="s">
@@ -4186,35 +4516,33 @@
       <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>43</v>
+      <c r="K34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>43</v>
+      <c r="P34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>43</v>
@@ -4225,11 +4553,11 @@
       <c r="T34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>43</v>
+      <c r="U34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>43</v>
@@ -4252,9 +4580,12 @@
       <c r="AC34" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="AD34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B35" t="s">
@@ -4275,20 +4606,18 @@
       <c r="G35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>43</v>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>43</v>
@@ -4296,8 +4625,8 @@
       <c r="N35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>42</v>
+      <c r="O35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>42</v>
@@ -4305,8 +4634,8 @@
       <c r="Q35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>43</v>
+      <c r="R35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>43</v>
@@ -4314,11 +4643,11 @@
       <c r="T35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>43</v>
+      <c r="U35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>43</v>
@@ -4341,9 +4670,12 @@
       <c r="AC35" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="AD35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B36" t="s">
@@ -4364,20 +4696,18 @@
       <c r="G36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>43</v>
+      <c r="H36" s="1"/>
+      <c r="I36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>43</v>
@@ -4385,8 +4715,8 @@
       <c r="N36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>42</v>
+      <c r="O36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>42</v>
@@ -4394,8 +4724,8 @@
       <c r="Q36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>43</v>
+      <c r="R36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>43</v>
@@ -4403,11 +4733,11 @@
       <c r="T36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>43</v>
+      <c r="U36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>43</v>
@@ -4430,9 +4760,12 @@
       <c r="AC36" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+      <c r="AD36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B37" t="s">
@@ -4453,9 +4786,7 @@
       <c r="G37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>43</v>
       </c>
@@ -4519,9 +4850,12 @@
       <c r="AC37" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="AD37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B38" t="s">
@@ -4542,23 +4876,21 @@
       <c r="G38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>42</v>
+      <c r="K38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>43</v>
+      <c r="M38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>43</v>
@@ -4566,14 +4898,14 @@
       <c r="O38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>42</v>
+      <c r="P38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>43</v>
+      <c r="R38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>43</v>
@@ -4581,11 +4913,11 @@
       <c r="T38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>43</v>
+      <c r="U38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>43</v>
@@ -4608,9 +4940,12 @@
       <c r="AC38" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="AD38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B39" t="s">
@@ -4631,23 +4966,21 @@
       <c r="G39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>42</v>
+      <c r="K39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>43</v>
+      <c r="M39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>43</v>
@@ -4655,14 +4988,14 @@
       <c r="O39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>42</v>
+      <c r="P39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>43</v>
+      <c r="R39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>43</v>
@@ -4670,11 +5003,11 @@
       <c r="T39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>43</v>
+      <c r="U39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>43</v>
@@ -4697,9 +5030,12 @@
       <c r="AC39" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="AD39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B40" t="s">
@@ -4720,23 +5056,21 @@
       <c r="G40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>42</v>
+      <c r="K40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>43</v>
+      <c r="M40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>43</v>
@@ -4744,14 +5078,14 @@
       <c r="O40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>42</v>
+      <c r="P40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>43</v>
+      <c r="R40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>43</v>
@@ -4759,11 +5093,11 @@
       <c r="T40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>43</v>
+      <c r="U40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>43</v>
@@ -4786,9 +5120,12 @@
       <c r="AC40" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="AD40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B41" t="s">
@@ -4809,9 +5146,7 @@
       <c r="G41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
@@ -4875,9 +5210,12 @@
       <c r="AC41" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="3">
+      <c r="AD41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B42" t="s">
@@ -4898,14 +5236,12 @@
       <c r="G42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>43</v>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>43</v>
@@ -4913,14 +5249,14 @@
       <c r="L42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>42</v>
+      <c r="M42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>43</v>
+      <c r="O42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>43</v>
@@ -4964,9 +5300,12 @@
       <c r="AC42" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="3">
+      <c r="AD42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B43" t="s">
@@ -4987,9 +5326,7 @@
       <c r="G43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
         <v>43</v>
       </c>
@@ -5038,11 +5375,11 @@
       <c r="X43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>43</v>
+      <c r="Y43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA43" s="2" t="s">
         <v>43</v>
@@ -5053,9 +5390,12 @@
       <c r="AC43" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="AD43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B44" t="s">
@@ -5076,23 +5416,21 @@
       <c r="G44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>42</v>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>42</v>
@@ -5103,11 +5441,11 @@
       <c r="P44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>42</v>
+      <c r="Q44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>42</v>
@@ -5118,8 +5456,8 @@
       <c r="U44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>43</v>
+      <c r="V44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>43</v>
@@ -5142,9 +5480,12 @@
       <c r="AC44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="AD44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B45" t="s">
@@ -5165,9 +5506,7 @@
       <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
         <v>43</v>
       </c>
@@ -5180,11 +5519,11 @@
       <c r="L45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>43</v>
+      <c r="M45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>43</v>
@@ -5231,9 +5570,12 @@
       <c r="AC45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="AD45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B46" t="s">
@@ -5254,14 +5596,12 @@
       <c r="G46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>43</v>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>43</v>
@@ -5269,20 +5609,20 @@
       <c r="L46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>42</v>
+      <c r="M46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>43</v>
+      <c r="O46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>43</v>
@@ -5320,9 +5660,12 @@
       <c r="AC46" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
+      <c r="AD46" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B47" t="s">
@@ -5343,9 +5686,7 @@
       <c r="G47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
         <v>43</v>
       </c>
@@ -5409,9 +5750,12 @@
       <c r="AC47" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="AD47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B48" t="s">
@@ -5432,14 +5776,12 @@
       <c r="G48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>43</v>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>43</v>
@@ -5447,14 +5789,14 @@
       <c r="L48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>42</v>
+      <c r="M48" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>43</v>
+      <c r="O48" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>43</v>
@@ -5498,9 +5840,12 @@
       <c r="AC48" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="3">
+      <c r="AD48" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B49" t="s">
@@ -5521,14 +5866,12 @@
       <c r="G49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>43</v>
+      <c r="H49" s="1"/>
+      <c r="I49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>43</v>
@@ -5536,14 +5879,14 @@
       <c r="L49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>42</v>
+      <c r="M49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O49" s="2" t="s">
-        <v>43</v>
+      <c r="O49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>43</v>
@@ -5587,9 +5930,12 @@
       <c r="AC49" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="AD49" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B50" t="s">
@@ -5610,35 +5956,33 @@
       <c r="G50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>43</v>
+      <c r="K50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>43</v>
+      <c r="P50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>43</v>
@@ -5649,11 +5993,11 @@
       <c r="T50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>43</v>
+      <c r="U50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>43</v>
@@ -5676,9 +6020,12 @@
       <c r="AC50" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="AD50" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B51" t="s">
@@ -5699,14 +6046,12 @@
       <c r="G51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>43</v>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>43</v>
@@ -5714,14 +6059,14 @@
       <c r="L51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>42</v>
+      <c r="M51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>43</v>
+      <c r="O51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>43</v>
@@ -5765,9 +6110,12 @@
       <c r="AC51" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="AD51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B52" t="s">
@@ -5788,9 +6136,7 @@
       <c r="G52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
         <v>43</v>
       </c>
@@ -5854,9 +6200,12 @@
       <c r="AC52" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="AD52" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B53" t="s">
@@ -5877,14 +6226,12 @@
       <c r="G53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>43</v>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>43</v>
@@ -5892,14 +6239,14 @@
       <c r="L53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>42</v>
+      <c r="M53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="2" t="s">
-        <v>43</v>
+      <c r="O53" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>43</v>
@@ -5943,9 +6290,12 @@
       <c r="AC53" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="AD53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B54" t="s">
@@ -5966,14 +6316,12 @@
       <c r="G54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>43</v>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>43</v>
@@ -5981,14 +6329,14 @@
       <c r="L54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>42</v>
+      <c r="M54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>43</v>
+      <c r="O54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>43</v>
@@ -6032,9 +6380,12 @@
       <c r="AC54" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="AD54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B55" t="s">
@@ -6055,14 +6406,12 @@
       <c r="G55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>43</v>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>43</v>
@@ -6070,14 +6419,14 @@
       <c r="L55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>42</v>
+      <c r="M55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>43</v>
+      <c r="O55" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>43</v>
@@ -6121,9 +6470,12 @@
       <c r="AC55" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="AD55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B56" t="s">
@@ -6144,9 +6496,7 @@
       <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
         <v>43</v>
       </c>
@@ -6210,9 +6560,12 @@
       <c r="AC56" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="3">
+      <c r="AD56" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B57" t="s">
@@ -6233,35 +6586,33 @@
       <c r="G57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>43</v>
+      <c r="K57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>43</v>
+      <c r="P57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>43</v>
@@ -6272,11 +6623,11 @@
       <c r="T57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>43</v>
+      <c r="U57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>43</v>
@@ -6299,9 +6650,12 @@
       <c r="AC57" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="AD57" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B58" t="s">
@@ -6322,35 +6676,33 @@
       <c r="G58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>43</v>
+      <c r="H58" s="1"/>
+      <c r="I58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>43</v>
+      <c r="P58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>43</v>
@@ -6361,20 +6713,20 @@
       <c r="T58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>42</v>
+      <c r="U58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y58" s="2" t="s">
-        <v>43</v>
+      <c r="Y58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>43</v>
@@ -6388,9 +6740,12 @@
       <c r="AC58" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="AD58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B59" t="s">
@@ -6411,9 +6766,7 @@
       <c r="G59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
         <v>42</v>
       </c>
@@ -6462,8 +6815,8 @@
       <c r="X59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y59" s="2" t="s">
-        <v>43</v>
+      <c r="Y59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z59" s="2" t="s">
         <v>43</v>
@@ -6477,9 +6830,12 @@
       <c r="AC59" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="AD59" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B60" t="s">
@@ -6500,9 +6856,7 @@
       <c r="G60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>42</v>
       </c>
@@ -6530,8 +6884,8 @@
       <c r="Q60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>43</v>
+      <c r="R60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>43</v>
@@ -6539,8 +6893,8 @@
       <c r="T60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>42</v>
+      <c r="U60" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>42</v>
@@ -6551,8 +6905,8 @@
       <c r="X60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y60" s="2" t="s">
-        <v>43</v>
+      <c r="Y60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z60" s="2" t="s">
         <v>43</v>
@@ -6566,9 +6920,12 @@
       <c r="AC60" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="AD60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B61" t="s">
@@ -6589,35 +6946,33 @@
       <c r="G61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>43</v>
+      <c r="H61" s="1"/>
+      <c r="I61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>43</v>
+      <c r="P61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>43</v>
@@ -6628,20 +6983,20 @@
       <c r="T61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>42</v>
+      <c r="U61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y61" s="2" t="s">
-        <v>43</v>
+      <c r="Y61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z61" s="2" t="s">
         <v>43</v>
@@ -6655,9 +7010,12 @@
       <c r="AC61" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="AD61" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B62" t="s">
@@ -6678,9 +7036,7 @@
       <c r="G62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
         <v>43</v>
       </c>
@@ -6744,9 +7100,12 @@
       <c r="AC62" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="AD62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B63" t="s">
@@ -6767,9 +7126,7 @@
       <c r="G63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>42</v>
       </c>
@@ -6797,8 +7154,8 @@
       <c r="Q63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>43</v>
+      <c r="R63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>43</v>
@@ -6806,8 +7163,8 @@
       <c r="T63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="1" t="s">
-        <v>42</v>
+      <c r="U63" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>42</v>
@@ -6818,8 +7175,8 @@
       <c r="X63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y63" s="2" t="s">
-        <v>43</v>
+      <c r="Y63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z63" s="2" t="s">
         <v>43</v>
@@ -6833,9 +7190,12 @@
       <c r="AC63" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="AD63" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B64" t="s">
@@ -6856,14 +7216,12 @@
       <c r="G64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>43</v>
+      <c r="H64" s="1"/>
+      <c r="I64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>43</v>
@@ -6877,11 +7235,11 @@
       <c r="N64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>43</v>
+      <c r="O64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>43</v>
@@ -6922,9 +7280,12 @@
       <c r="AC64" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="3">
+      <c r="AD64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B65" t="s">
@@ -6945,9 +7306,7 @@
       <c r="G65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
         <v>43</v>
       </c>
@@ -7011,9 +7370,12 @@
       <c r="AC65" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="AD65" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B66" t="s">
@@ -7034,14 +7396,12 @@
       <c r="G66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>43</v>
+      <c r="H66" s="1"/>
+      <c r="I66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>43</v>
@@ -7055,11 +7415,11 @@
       <c r="N66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>43</v>
+      <c r="O66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>43</v>
@@ -7100,9 +7460,12 @@
       <c r="AC66" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="AD66" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B67" t="s">
@@ -7123,14 +7486,12 @@
       <c r="G67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>43</v>
+      <c r="H67" s="1"/>
+      <c r="I67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>43</v>
@@ -7144,11 +7505,11 @@
       <c r="N67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>43</v>
+      <c r="O67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>43</v>
@@ -7189,9 +7550,12 @@
       <c r="AC67" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="3">
+      <c r="AD67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B68" t="s">
@@ -7212,9 +7576,7 @@
       <c r="G68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>42</v>
       </c>
@@ -7239,11 +7601,11 @@
       <c r="P68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>42</v>
+      <c r="Q68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>42</v>
@@ -7260,8 +7622,8 @@
       <c r="W68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X68" s="2" t="s">
-        <v>43</v>
+      <c r="X68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y68" s="2" t="s">
         <v>43</v>
@@ -7278,9 +7640,12 @@
       <c r="AC68" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="3">
+      <c r="AD68" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B69" t="s">
@@ -7301,14 +7666,12 @@
       <c r="G69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>43</v>
+      <c r="H69" s="1"/>
+      <c r="I69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>43</v>
@@ -7316,17 +7679,17 @@
       <c r="L69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>43</v>
+      <c r="M69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>43</v>
@@ -7367,9 +7730,12 @@
       <c r="AC69" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="AD69" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B70" t="s">
@@ -7390,9 +7756,7 @@
       <c r="G70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
         <v>43</v>
       </c>
@@ -7441,11 +7805,11 @@
       <c r="X70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z70" s="2" t="s">
-        <v>43</v>
+      <c r="Y70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA70" s="2" t="s">
         <v>43</v>
@@ -7456,9 +7820,12 @@
       <c r="AC70" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="3">
+      <c r="AD70" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B71" t="s">
@@ -7479,35 +7846,33 @@
       <c r="G71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>43</v>
+      <c r="K71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>43</v>
+      <c r="P71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>43</v>
@@ -7518,20 +7883,20 @@
       <c r="T71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>42</v>
+      <c r="U71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y71" s="2" t="s">
-        <v>43</v>
+      <c r="Y71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z71" s="2" t="s">
         <v>43</v>
@@ -7545,9 +7910,12 @@
       <c r="AC71" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="AD71" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B72" t="s">
@@ -7568,9 +7936,7 @@
       <c r="G72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
         <v>43</v>
       </c>
@@ -7583,11 +7949,11 @@
       <c r="L72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>43</v>
+      <c r="M72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>43</v>
@@ -7634,9 +8000,12 @@
       <c r="AC72" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="AD72" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B73" t="s">
@@ -7657,9 +8026,7 @@
       <c r="G73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
         <v>43</v>
       </c>
@@ -7723,9 +8090,12 @@
       <c r="AC73" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="AD73" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B74" t="s">
@@ -7746,14 +8116,12 @@
       <c r="G74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>43</v>
+      <c r="H74" s="1"/>
+      <c r="I74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>43</v>
@@ -7767,11 +8135,11 @@
       <c r="N74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>43</v>
+      <c r="O74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>43</v>
@@ -7812,9 +8180,12 @@
       <c r="AC74" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="3">
+      <c r="AD74" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B75" t="s">
@@ -7835,14 +8206,12 @@
       <c r="G75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>43</v>
+      <c r="H75" s="1"/>
+      <c r="I75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>43</v>
@@ -7856,14 +8225,14 @@
       <c r="N75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>42</v>
+      <c r="O75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>43</v>
+      <c r="Q75" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R75" s="2" t="s">
         <v>43</v>
@@ -7901,9 +8270,12 @@
       <c r="AC75" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="AD75" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B76" t="s">
@@ -7924,9 +8296,7 @@
       <c r="G76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
         <v>43</v>
       </c>
@@ -7990,9 +8360,12 @@
       <c r="AC76" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="AD76" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B77" t="s">
@@ -8013,14 +8386,12 @@
       <c r="G77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>43</v>
+      <c r="H77" s="1"/>
+      <c r="I77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>43</v>
@@ -8034,11 +8405,11 @@
       <c r="N77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>43</v>
+      <c r="O77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>43</v>
@@ -8064,11 +8435,11 @@
       <c r="X77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z77" s="2" t="s">
-        <v>43</v>
+      <c r="Y77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA77" s="2" t="s">
         <v>43</v>
@@ -8079,9 +8450,12 @@
       <c r="AC77" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="AD77" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B78" t="s">
@@ -8102,14 +8476,12 @@
       <c r="G78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>43</v>
+      <c r="H78" s="1"/>
+      <c r="I78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>43</v>
@@ -8117,17 +8489,17 @@
       <c r="L78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>43</v>
+      <c r="M78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>43</v>
@@ -8168,9 +8540,12 @@
       <c r="AC78" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="AD78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B79" t="s">
@@ -8191,14 +8566,12 @@
       <c r="G79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>43</v>
+      <c r="H79" s="1"/>
+      <c r="I79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>43</v>
@@ -8212,11 +8585,11 @@
       <c r="N79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>43</v>
+      <c r="O79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>43</v>
@@ -8257,9 +8630,12 @@
       <c r="AC79" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="AD79" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B80" t="s">
@@ -8280,14 +8656,12 @@
       <c r="G80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>43</v>
+      <c r="H80" s="1"/>
+      <c r="I80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>43</v>
@@ -8295,17 +8669,17 @@
       <c r="L80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>43</v>
+      <c r="M80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>43</v>
@@ -8346,9 +8720,12 @@
       <c r="AC80" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="3">
+      <c r="AD80" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B81" t="s">
@@ -8369,9 +8746,7 @@
       <c r="G81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
         <v>43</v>
       </c>
@@ -8435,9 +8810,12 @@
       <c r="AC81" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="AD81" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B82" t="s">
@@ -8458,9 +8836,7 @@
       <c r="G82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
         <v>43</v>
       </c>
@@ -8524,9 +8900,12 @@
       <c r="AC82" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="AD82" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B83" t="s">
@@ -8547,17 +8926,15 @@
       <c r="G83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>43</v>
+      <c r="K83" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>43</v>
@@ -8613,9 +8990,12 @@
       <c r="AC83" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="3">
+      <c r="AD83" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B84" t="s">
@@ -8636,9 +9016,7 @@
       <c r="G84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
         <v>42</v>
       </c>
@@ -8648,14 +9026,14 @@
       <c r="K84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>43</v>
+      <c r="L84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>43</v>
@@ -8666,8 +9044,8 @@
       <c r="Q84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R84" s="1" t="s">
-        <v>42</v>
+      <c r="R84" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>42</v>
@@ -8678,8 +9056,8 @@
       <c r="U84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>43</v>
+      <c r="V84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>43</v>
@@ -8702,9 +9080,12 @@
       <c r="AC84" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="AD84" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B85" t="s">
@@ -8725,9 +9106,7 @@
       <c r="G85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
         <v>43</v>
       </c>
@@ -8791,9 +9170,12 @@
       <c r="AC85" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="3">
+      <c r="AD85" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B86" t="s">
@@ -8814,9 +9196,7 @@
       <c r="G86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
         <v>43</v>
       </c>
@@ -8880,9 +9260,12 @@
       <c r="AC86" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="AD86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B87" t="s">
@@ -8903,9 +9286,7 @@
       <c r="G87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
         <v>43</v>
       </c>
@@ -8969,9 +9350,12 @@
       <c r="AC87" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="AD87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B88" t="s">
@@ -8992,9 +9376,7 @@
       <c r="G88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
         <v>43</v>
       </c>
@@ -9022,8 +9404,8 @@
       <c r="Q88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R88" s="1" t="s">
-        <v>42</v>
+      <c r="R88" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>42</v>
@@ -9034,17 +9416,17 @@
       <c r="U88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>42</v>
+      <c r="V88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y88" s="2" t="s">
-        <v>43</v>
+      <c r="Y88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z88" s="2" t="s">
         <v>43</v>
@@ -9058,9 +9440,12 @@
       <c r="AC88" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="3">
+      <c r="AD88" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B89" t="s">
@@ -9081,9 +9466,7 @@
       <c r="G89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
         <v>43</v>
       </c>
@@ -9147,9 +9530,12 @@
       <c r="AC89" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="AD89" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B90" t="s">
@@ -9170,9 +9556,7 @@
       <c r="G90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
         <v>43</v>
       </c>
@@ -9236,9 +9620,12 @@
       <c r="AC90" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="AD90" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B91" t="s">
@@ -9259,9 +9646,7 @@
       <c r="G91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
         <v>43</v>
       </c>
@@ -9325,9 +9710,12 @@
       <c r="AC91" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="AD91" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B92" t="s">
@@ -9348,38 +9736,36 @@
       <c r="G92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>43</v>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>42</v>
+      <c r="P92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>42</v>
@@ -9390,17 +9776,17 @@
       <c r="U92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>42</v>
+      <c r="V92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y92" s="2" t="s">
-        <v>43</v>
+      <c r="Y92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z92" s="2" t="s">
         <v>43</v>
@@ -9414,9 +9800,12 @@
       <c r="AC92" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="AD92" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B93" t="s">
@@ -9437,35 +9826,33 @@
       <c r="G93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>43</v>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>43</v>
+      <c r="P93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>43</v>
@@ -9476,20 +9863,20 @@
       <c r="T93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>42</v>
+      <c r="U93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y93" s="2" t="s">
-        <v>43</v>
+      <c r="Y93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z93" s="2" t="s">
         <v>43</v>
@@ -9503,9 +9890,12 @@
       <c r="AC93" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="AD93" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B94" t="s">
@@ -9526,9 +9916,7 @@
       <c r="G94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
         <v>43</v>
       </c>
@@ -9592,9 +9980,12 @@
       <c r="AC94" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="AD94" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B95" t="s">
@@ -9615,9 +10006,7 @@
       <c r="G95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
         <v>43</v>
       </c>
@@ -9681,9 +10070,12 @@
       <c r="AC95" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="3">
+      <c r="AD95" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B96" t="s">
@@ -9704,9 +10096,7 @@
       <c r="G96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
         <v>43</v>
       </c>
@@ -9719,11 +10109,11 @@
       <c r="L96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>43</v>
+      <c r="M96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>43</v>
@@ -9770,9 +10160,12 @@
       <c r="AC96" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="3">
+      <c r="AD96" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B97" t="s">
@@ -9793,9 +10186,7 @@
       <c r="G97" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
         <v>43</v>
       </c>
@@ -9859,9 +10250,12 @@
       <c r="AC97" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="AD97" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B98" t="s">
@@ -9882,9 +10276,7 @@
       <c r="G98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
         <v>43</v>
       </c>
@@ -9948,9 +10340,12 @@
       <c r="AC98" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="AD98" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B99" t="s">
@@ -9971,9 +10366,7 @@
       <c r="G99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
         <v>43</v>
       </c>
@@ -10037,9 +10430,12 @@
       <c r="AC99" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="AD99" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B100" t="s">
@@ -10060,9 +10456,7 @@
       <c r="G100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
         <v>43</v>
       </c>
@@ -10126,9 +10520,12 @@
       <c r="AC100" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="AD100" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B101" t="s">
@@ -10149,9 +10546,7 @@
       <c r="G101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
         <v>43</v>
       </c>
@@ -10179,8 +10574,8 @@
       <c r="Q101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R101" s="1" t="s">
-        <v>42</v>
+      <c r="R101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>42</v>
@@ -10191,17 +10586,17 @@
       <c r="U101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W101" s="1" t="s">
-        <v>42</v>
+      <c r="V101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y101" s="2" t="s">
-        <v>43</v>
+      <c r="Y101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z101" s="2" t="s">
         <v>43</v>
@@ -10215,9 +10610,12 @@
       <c r="AC101" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="AD101" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B102" t="s">
@@ -10238,9 +10636,7 @@
       <c r="G102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
         <v>43</v>
       </c>
@@ -10277,20 +10673,20 @@
       <c r="T102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W102" s="1" t="s">
-        <v>42</v>
+      <c r="U102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y102" s="2" t="s">
-        <v>43</v>
+      <c r="Y102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z102" s="2" t="s">
         <v>43</v>
@@ -10304,9 +10700,12 @@
       <c r="AC102" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="AD102" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B103" t="s">
@@ -10327,9 +10726,7 @@
       <c r="G103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="2" t="s">
         <v>43</v>
       </c>
@@ -10393,9 +10790,12 @@
       <c r="AC103" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="AD103" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B104" t="s">
@@ -10416,9 +10816,7 @@
       <c r="G104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H104" s="2"/>
       <c r="I104" s="2" t="s">
         <v>43</v>
       </c>
@@ -10482,9 +10880,12 @@
       <c r="AC104" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="AD104" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B105" t="s">
@@ -10505,9 +10906,7 @@
       <c r="G105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
         <v>43</v>
       </c>
@@ -10571,9 +10970,12 @@
       <c r="AC105" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="AD105" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B106" t="s">
@@ -10594,38 +10996,36 @@
       <c r="G106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>42</v>
+      <c r="H106" s="1"/>
+      <c r="I106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M106" s="2" t="s">
-        <v>43</v>
+      <c r="M106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O106" s="1" t="s">
-        <v>42</v>
+      <c r="O106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>42</v>
+      <c r="Q106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>42</v>
@@ -10636,17 +11036,17 @@
       <c r="U106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W106" s="1" t="s">
-        <v>42</v>
+      <c r="V106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y106" s="2" t="s">
-        <v>43</v>
+      <c r="Y106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z106" s="2" t="s">
         <v>43</v>
@@ -10660,9 +11060,12 @@
       <c r="AC106" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="AD106" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B107" t="s">
@@ -10683,14 +11086,12 @@
       <c r="G107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>43</v>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>43</v>
@@ -10698,14 +11099,14 @@
       <c r="L107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>42</v>
+      <c r="M107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O107" s="2" t="s">
-        <v>43</v>
+      <c r="O107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>43</v>
@@ -10713,8 +11114,8 @@
       <c r="Q107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R107" s="1" t="s">
-        <v>42</v>
+      <c r="R107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>42</v>
@@ -10722,8 +11123,8 @@
       <c r="T107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U107" s="2" t="s">
-        <v>43</v>
+      <c r="U107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>43</v>
@@ -10749,9 +11150,12 @@
       <c r="AC107" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="3">
+      <c r="AD107" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B108" t="s">
@@ -10772,9 +11176,7 @@
       <c r="G108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
         <v>43</v>
       </c>
@@ -10787,11 +11189,11 @@
       <c r="L108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>43</v>
+      <c r="M108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>43</v>
@@ -10802,8 +11204,8 @@
       <c r="Q108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R108" s="1" t="s">
-        <v>42</v>
+      <c r="R108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S108" s="1" t="s">
         <v>42</v>
@@ -10811,8 +11213,8 @@
       <c r="T108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U108" s="2" t="s">
-        <v>43</v>
+      <c r="U108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>43</v>
@@ -10838,9 +11240,12 @@
       <c r="AC108" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="AD108" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B109" t="s">
@@ -10861,11 +11266,9 @@
       <c r="G109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>42</v>
+      <c r="H109" s="1"/>
+      <c r="I109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>42</v>
@@ -10885,8 +11288,8 @@
       <c r="O109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>43</v>
+      <c r="P109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>43</v>
@@ -10906,11 +11309,11 @@
       <c r="V109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W109" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X109" s="2" t="s">
-        <v>43</v>
+      <c r="W109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y109" s="2" t="s">
         <v>43</v>
@@ -10927,9 +11330,12 @@
       <c r="AC109" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="3">
+      <c r="AD109" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B110" t="s">
@@ -10950,23 +11356,21 @@
       <c r="G110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>42</v>
+      <c r="K110" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M110" s="2" t="s">
-        <v>43</v>
+      <c r="M110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>43</v>
@@ -10974,11 +11378,11 @@
       <c r="O110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q110" s="2" t="s">
-        <v>43</v>
+      <c r="P110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R110" s="2" t="s">
         <v>43</v>
@@ -10989,11 +11393,11 @@
       <c r="T110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V110" s="2" t="s">
-        <v>43</v>
+      <c r="U110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W110" s="2" t="s">
         <v>43</v>
@@ -11016,9 +11420,12 @@
       <c r="AC110" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="AD110" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B111" t="s">
@@ -11039,23 +11446,21 @@
       <c r="G111" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>42</v>
+      <c r="K111" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M111" s="2" t="s">
-        <v>43</v>
+      <c r="M111" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>43</v>
@@ -11078,11 +11483,11 @@
       <c r="T111" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V111" s="2" t="s">
-        <v>43</v>
+      <c r="U111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W111" s="2" t="s">
         <v>43</v>
@@ -11105,9 +11510,12 @@
       <c r="AC111" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="AD111" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B112" t="s">
@@ -11128,23 +11536,21 @@
       <c r="G112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>42</v>
+      <c r="K112" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M112" s="2" t="s">
-        <v>43</v>
+      <c r="M112" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>43</v>
@@ -11167,11 +11573,11 @@
       <c r="T112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>43</v>
+      <c r="U112" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>43</v>
@@ -11194,9 +11600,12 @@
       <c r="AC112" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="AD112" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B113" t="s">
@@ -11217,23 +11626,21 @@
       <c r="G113" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>42</v>
+      <c r="K113" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M113" s="2" t="s">
-        <v>43</v>
+      <c r="M113" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>43</v>
@@ -11256,11 +11663,11 @@
       <c r="T113" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V113" s="2" t="s">
-        <v>43</v>
+      <c r="U113" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W113" s="2" t="s">
         <v>43</v>
@@ -11283,9 +11690,12 @@
       <c r="AC113" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="AD113" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B114" t="s">
@@ -11306,20 +11716,18 @@
       <c r="G114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>43</v>
+      <c r="K114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>43</v>
@@ -11345,11 +11753,11 @@
       <c r="T114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>43</v>
+      <c r="U114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W114" s="2" t="s">
         <v>43</v>
@@ -11372,9 +11780,12 @@
       <c r="AC114" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="AD114" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B115" t="s">
@@ -11395,23 +11806,21 @@
       <c r="G115" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>42</v>
+      <c r="K115" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M115" s="2" t="s">
-        <v>43</v>
+      <c r="M115" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>43</v>
@@ -11434,11 +11843,11 @@
       <c r="T115" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V115" s="2" t="s">
-        <v>43</v>
+      <c r="U115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W115" s="2" t="s">
         <v>43</v>
@@ -11461,9 +11870,12 @@
       <c r="AC115" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="AD115" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B116" t="s">
@@ -11484,23 +11896,21 @@
       <c r="G116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>42</v>
+      <c r="K116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M116" s="2" t="s">
-        <v>43</v>
+      <c r="M116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>43</v>
@@ -11523,11 +11933,11 @@
       <c r="T116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>43</v>
+      <c r="U116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>43</v>
@@ -11550,9 +11960,12 @@
       <c r="AC116" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="AD116" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B117" t="s">
@@ -11573,20 +11986,18 @@
       <c r="G117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>43</v>
+      <c r="K117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>43</v>
@@ -11612,11 +12023,11 @@
       <c r="T117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>43</v>
+      <c r="U117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W117" s="2" t="s">
         <v>43</v>
@@ -11639,9 +12050,12 @@
       <c r="AC117" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="AD117" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B118" t="s">
@@ -11662,23 +12076,21 @@
       <c r="G118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>42</v>
+      <c r="K118" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>43</v>
+      <c r="M118" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>43</v>
@@ -11701,11 +12113,11 @@
       <c r="T118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V118" s="2" t="s">
-        <v>43</v>
+      <c r="U118" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W118" s="2" t="s">
         <v>43</v>
@@ -11728,9 +12140,12 @@
       <c r="AC118" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="AD118" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B119" t="s">
@@ -11751,23 +12166,21 @@
       <c r="G119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H119" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>42</v>
+      <c r="K119" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M119" s="2" t="s">
-        <v>43</v>
+      <c r="M119" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>43</v>
@@ -11790,11 +12203,11 @@
       <c r="T119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V119" s="2" t="s">
-        <v>43</v>
+      <c r="U119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W119" s="2" t="s">
         <v>43</v>
@@ -11817,9 +12230,12 @@
       <c r="AC119" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="AD119" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B120" t="s">
@@ -11840,23 +12256,21 @@
       <c r="G120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>42</v>
+      <c r="K120" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M120" s="2" t="s">
-        <v>43</v>
+      <c r="M120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>43</v>
@@ -11879,11 +12293,11 @@
       <c r="T120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V120" s="2" t="s">
-        <v>43</v>
+      <c r="U120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W120" s="2" t="s">
         <v>43</v>
@@ -11906,9 +12320,12 @@
       <c r="AC120" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="AD120" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B121" t="s">
@@ -11929,23 +12346,21 @@
       <c r="G121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H121" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>42</v>
+      <c r="K121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M121" s="2" t="s">
-        <v>43</v>
+      <c r="M121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>43</v>
@@ -11968,11 +12383,11 @@
       <c r="T121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V121" s="2" t="s">
-        <v>43</v>
+      <c r="U121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W121" s="2" t="s">
         <v>43</v>
@@ -11995,9 +12410,12 @@
       <c r="AC121" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="AD121" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B122" t="s">
@@ -12018,20 +12436,18 @@
       <c r="G122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>43</v>
+      <c r="K122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>43</v>
@@ -12057,11 +12473,11 @@
       <c r="T122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V122" s="2" t="s">
-        <v>43</v>
+      <c r="U122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W122" s="2" t="s">
         <v>43</v>
@@ -12084,9 +12500,12 @@
       <c r="AC122" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="AD122" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B123" t="s">
@@ -12107,9 +12526,7 @@
       <c r="G123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
         <v>42</v>
       </c>
@@ -12134,11 +12551,11 @@
       <c r="P123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>42</v>
+      <c r="Q123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>42</v>
@@ -12158,8 +12575,8 @@
       <c r="X123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y123" s="2" t="s">
-        <v>43</v>
+      <c r="Y123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z123" s="2" t="s">
         <v>43</v>
@@ -12173,9 +12590,12 @@
       <c r="AC123" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="AD123" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B124" t="s">
@@ -12196,14 +12616,12 @@
       <c r="G124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>43</v>
+      <c r="H124" s="1"/>
+      <c r="I124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>43</v>
@@ -12235,8 +12653,8 @@
       <c r="T124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U124" s="1" t="s">
-        <v>42</v>
+      <c r="U124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V124" s="1" t="s">
         <v>42</v>
@@ -12247,8 +12665,8 @@
       <c r="X124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y124" s="2" t="s">
-        <v>43</v>
+      <c r="Y124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z124" s="2" t="s">
         <v>43</v>
@@ -12262,9 +12680,12 @@
       <c r="AC124" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="AD124" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B125" t="s">
@@ -12285,9 +12706,7 @@
       <c r="G125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
         <v>43</v>
       </c>
@@ -12351,9 +12770,12 @@
       <c r="AC125" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="3">
+      <c r="AD125" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B126" t="s">
@@ -12374,9 +12796,7 @@
       <c r="G126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
         <v>43</v>
       </c>
@@ -12440,9 +12860,12 @@
       <c r="AC126" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="AD126" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B127" t="s">
@@ -12463,17 +12886,15 @@
       <c r="G127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>42</v>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>42</v>
@@ -12484,8 +12905,8 @@
       <c r="N127" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O127" s="2" t="s">
-        <v>43</v>
+      <c r="O127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>43</v>
@@ -12529,9 +12950,12 @@
       <c r="AC127" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="AD127" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B128" t="s">
@@ -12552,9 +12976,7 @@
       <c r="G128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
         <v>43</v>
       </c>
@@ -12618,9 +13040,12 @@
       <c r="AC128" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="AD128" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B129" t="s">
@@ -12641,9 +13066,7 @@
       <c r="G129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
         <v>43</v>
       </c>
@@ -12707,9 +13130,12 @@
       <c r="AC129" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="AD129" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B130" t="s">
@@ -12730,26 +13156,24 @@
       <c r="G130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>43</v>
+      <c r="J130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>43</v>
@@ -12760,8 +13184,8 @@
       <c r="Q130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R130" s="1" t="s">
-        <v>42</v>
+      <c r="R130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>42</v>
@@ -12781,8 +13205,8 @@
       <c r="X130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y130" s="2" t="s">
-        <v>43</v>
+      <c r="Y130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z130" s="2" t="s">
         <v>43</v>
@@ -12796,9 +13220,12 @@
       <c r="AC130" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="AD130" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B131" t="s">
@@ -12819,26 +13246,24 @@
       <c r="G131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>43</v>
+      <c r="K131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>43</v>
@@ -12858,20 +13283,20 @@
       <c r="T131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W131" s="1" t="s">
-        <v>42</v>
+      <c r="U131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y131" s="2" t="s">
-        <v>43</v>
+      <c r="Y131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z131" s="2" t="s">
         <v>43</v>
@@ -12885,9 +13310,12 @@
       <c r="AC131" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="AD131" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B132" t="s">
@@ -12908,26 +13336,24 @@
       <c r="G132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>43</v>
+      <c r="H132" s="2"/>
+      <c r="I132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>43</v>
+      <c r="K132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>43</v>
@@ -12938,8 +13364,8 @@
       <c r="Q132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R132" s="1" t="s">
-        <v>42</v>
+      <c r="R132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>42</v>
@@ -12959,8 +13385,8 @@
       <c r="X132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y132" s="2" t="s">
-        <v>43</v>
+      <c r="Y132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z132" s="2" t="s">
         <v>43</v>
@@ -12974,9 +13400,12 @@
       <c r="AC132" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="AD132" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B133" t="s">
@@ -12997,9 +13426,7 @@
       <c r="G133" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H133" s="1"/>
       <c r="I133" s="1" t="s">
         <v>42</v>
       </c>
@@ -13024,8 +13451,8 @@
       <c r="P133" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q133" s="2" t="s">
-        <v>43</v>
+      <c r="Q133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R133" s="2" t="s">
         <v>43</v>
@@ -13039,8 +13466,8 @@
       <c r="U133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>42</v>
+      <c r="V133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>42</v>
@@ -13048,24 +13475,27 @@
       <c r="X133" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC133" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="3">
+      <c r="Y133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD133" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B134" t="s">
@@ -13086,9 +13516,7 @@
       <c r="G134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H134" s="2"/>
       <c r="I134" s="2" t="s">
         <v>43</v>
       </c>
@@ -13140,21 +13568,24 @@
       <c r="Y134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC134" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="Z134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD134" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B135" t="s">
@@ -13175,9 +13606,7 @@
       <c r="G135" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
         <v>42</v>
       </c>
@@ -13202,8 +13631,8 @@
       <c r="P135" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q135" s="2" t="s">
-        <v>43</v>
+      <c r="Q135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R135" s="2" t="s">
         <v>43</v>
@@ -13217,8 +13646,8 @@
       <c r="U135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>42</v>
+      <c r="V135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>42</v>
@@ -13226,24 +13655,27 @@
       <c r="X135" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC135" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="Y135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD135" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B136" t="s">
@@ -13264,9 +13696,7 @@
       <c r="G136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H136" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H136" s="2"/>
       <c r="I136" s="2" t="s">
         <v>43</v>
       </c>
@@ -13318,21 +13748,24 @@
       <c r="Y136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC136" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="Z136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD136" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B137" t="s">
@@ -13353,17 +13786,15 @@
       <c r="G137" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>42</v>
+      <c r="H137" s="1"/>
+      <c r="I137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>42</v>
@@ -13377,8 +13808,8 @@
       <c r="O137" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P137" s="2" t="s">
-        <v>43</v>
+      <c r="P137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>43</v>
@@ -13398,11 +13829,11 @@
       <c r="V137" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W137" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X137" s="2" t="s">
-        <v>43</v>
+      <c r="W137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y137" s="2" t="s">
         <v>43</v>
@@ -13419,9 +13850,12 @@
       <c r="AC137" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="AD137" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B138" t="s">
@@ -13442,9 +13876,7 @@
       <c r="G138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H138" s="2"/>
       <c r="I138" s="2" t="s">
         <v>43</v>
       </c>
@@ -13508,9 +13940,12 @@
       <c r="AC138" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="AD138" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B139" t="s">
@@ -13531,9 +13966,7 @@
       <c r="G139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H139" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
         <v>43</v>
       </c>
@@ -13597,9 +14030,12 @@
       <c r="AC139" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="3">
+      <c r="AD139" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B140" t="s">
@@ -13620,9 +14056,7 @@
       <c r="G140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H140" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
         <v>43</v>
       </c>
@@ -13686,9 +14120,12 @@
       <c r="AC140" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="AD140" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B141" t="s">
@@ -13709,17 +14146,15 @@
       <c r="G141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>42</v>
+      <c r="H141" s="1"/>
+      <c r="I141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>42</v>
@@ -13733,8 +14168,8 @@
       <c r="O141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P141" s="2" t="s">
-        <v>43</v>
+      <c r="P141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>43</v>
@@ -13754,11 +14189,11 @@
       <c r="V141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X141" s="2" t="s">
-        <v>43</v>
+      <c r="W141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y141" s="2" t="s">
         <v>43</v>
@@ -13775,9 +14210,12 @@
       <c r="AC141" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="AD141" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B142" t="s">
@@ -13798,17 +14236,15 @@
       <c r="G142" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>42</v>
+      <c r="H142" s="1"/>
+      <c r="I142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>42</v>
@@ -13822,8 +14258,8 @@
       <c r="O142" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P142" s="2" t="s">
-        <v>43</v>
+      <c r="P142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>43</v>
@@ -13843,11 +14279,11 @@
       <c r="V142" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X142" s="2" t="s">
-        <v>43</v>
+      <c r="W142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y142" s="2" t="s">
         <v>43</v>
@@ -13864,9 +14300,12 @@
       <c r="AC142" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="AD142" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B143" t="s">
@@ -13887,9 +14326,7 @@
       <c r="G143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H143" s="2"/>
       <c r="I143" s="2" t="s">
         <v>43</v>
       </c>
@@ -13953,9 +14390,12 @@
       <c r="AC143" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="3">
+      <c r="AD143" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B144" t="s">
@@ -13976,9 +14416,7 @@
       <c r="G144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H144" s="2"/>
       <c r="I144" s="2" t="s">
         <v>43</v>
       </c>
@@ -14042,9 +14480,12 @@
       <c r="AC144" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="AD144" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B145" t="s">
@@ -14065,26 +14506,24 @@
       <c r="G145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H145" s="2"/>
       <c r="I145" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>43</v>
+      <c r="K145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>43</v>
@@ -14110,11 +14549,11 @@
       <c r="V145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X145" s="2" t="s">
-        <v>43</v>
+      <c r="W145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y145" s="2" t="s">
         <v>43</v>
@@ -14131,9 +14570,12 @@
       <c r="AC145" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="AD145" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B146" t="s">
@@ -14154,9 +14596,7 @@
       <c r="G146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H146" s="2"/>
       <c r="I146" s="2" t="s">
         <v>43</v>
       </c>
@@ -14217,12 +14657,15 @@
       <c r="AB146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC146" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="3">
+      <c r="AC146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B147" t="s">
@@ -14243,17 +14686,15 @@
       <c r="G147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>42</v>
+      <c r="H147" s="1"/>
+      <c r="I147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>42</v>
@@ -14267,14 +14708,14 @@
       <c r="O147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P147" s="2" t="s">
-        <v>43</v>
+      <c r="P147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R147" s="1" t="s">
-        <v>42</v>
+      <c r="R147" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S147" s="1" t="s">
         <v>42</v>
@@ -14285,17 +14726,17 @@
       <c r="U147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W147" s="1" t="s">
-        <v>42</v>
+      <c r="V147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y147" s="2" t="s">
-        <v>43</v>
+      <c r="Y147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z147" s="2" t="s">
         <v>43</v>
@@ -14309,9 +14750,12 @@
       <c r="AC147" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="AD147" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B148" t="s">
@@ -14332,9 +14776,7 @@
       <c r="G148" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H148" s="2"/>
       <c r="I148" s="2" t="s">
         <v>43</v>
       </c>
@@ -14398,9 +14840,12 @@
       <c r="AC148" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="3">
+      <c r="AD148" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B149" t="s">
@@ -14421,9 +14866,7 @@
       <c r="G149" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H149" s="2"/>
       <c r="I149" s="2" t="s">
         <v>43</v>
       </c>
@@ -14487,9 +14930,12 @@
       <c r="AC149" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="3">
+      <c r="AD149" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B150" t="s">
@@ -14510,9 +14956,7 @@
       <c r="G150" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H150" s="1"/>
       <c r="I150" s="1" t="s">
         <v>42</v>
       </c>
@@ -14537,11 +14981,11 @@
       <c r="P150" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q150" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>42</v>
+      <c r="Q150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>42</v>
@@ -14561,8 +15005,8 @@
       <c r="X150" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y150" s="2" t="s">
-        <v>43</v>
+      <c r="Y150" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z150" s="2" t="s">
         <v>43</v>
@@ -14576,9 +15020,12 @@
       <c r="AC150" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="AD150" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B151" t="s">
@@ -14599,9 +15046,7 @@
       <c r="G151" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H151" s="1"/>
       <c r="I151" s="1" t="s">
         <v>42</v>
       </c>
@@ -14626,11 +15071,11 @@
       <c r="P151" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q151" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R151" s="1" t="s">
-        <v>42</v>
+      <c r="Q151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="S151" s="1" t="s">
         <v>42</v>
@@ -14650,8 +15095,8 @@
       <c r="X151" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y151" s="2" t="s">
-        <v>43</v>
+      <c r="Y151" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z151" s="2" t="s">
         <v>43</v>
@@ -14665,9 +15110,12 @@
       <c r="AC151" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="AD151" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B152" t="s">
@@ -14688,9 +15136,7 @@
       <c r="G152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H152" s="1"/>
       <c r="I152" s="1" t="s">
         <v>42</v>
       </c>
@@ -14715,8 +15161,8 @@
       <c r="P152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q152" s="2" t="s">
-        <v>43</v>
+      <c r="Q152" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R152" s="2" t="s">
         <v>43</v>
@@ -14727,8 +15173,8 @@
       <c r="T152" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U152" s="1" t="s">
-        <v>42</v>
+      <c r="U152" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V152" s="1" t="s">
         <v>42</v>
@@ -14739,8 +15185,8 @@
       <c r="X152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y152" s="2" t="s">
-        <v>43</v>
+      <c r="Y152" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z152" s="2" t="s">
         <v>43</v>
@@ -14754,9 +15200,12 @@
       <c r="AC152" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="3">
+      <c r="AD152" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B153" t="s">
@@ -14777,9 +15226,7 @@
       <c r="G153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H153" s="1"/>
       <c r="I153" s="1" t="s">
         <v>42</v>
       </c>
@@ -14804,8 +15251,8 @@
       <c r="P153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q153" s="2" t="s">
-        <v>43</v>
+      <c r="Q153" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R153" s="2" t="s">
         <v>43</v>
@@ -14816,8 +15263,8 @@
       <c r="T153" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U153" s="1" t="s">
-        <v>42</v>
+      <c r="U153" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V153" s="1" t="s">
         <v>42</v>
@@ -14828,8 +15275,8 @@
       <c r="X153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y153" s="2" t="s">
-        <v>43</v>
+      <c r="Y153" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z153" s="2" t="s">
         <v>43</v>
@@ -14843,9 +15290,12 @@
       <c r="AC153" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="AD153" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B154" t="s">
@@ -14866,9 +15316,7 @@
       <c r="G154" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
         <v>43</v>
       </c>
@@ -14932,9 +15380,12 @@
       <c r="AC154" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="3">
+      <c r="AD154" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B155" t="s">
@@ -14955,9 +15406,7 @@
       <c r="G155" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H155" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H155" s="2"/>
       <c r="I155" s="2" t="s">
         <v>43</v>
       </c>
@@ -15021,31 +15470,34 @@
       <c r="AC155" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AD155" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>